--- a/stats2/tables/table3_1.xlsx
+++ b/stats2/tables/table3_1.xlsx
@@ -493,25 +493,25 @@
         <v>3.07</v>
       </c>
       <c r="D2" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04402729044834314</v>
+        <v>0.04383101851851856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.606874317962398</v>
+        <v>0.6198642084151523</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44696</v>
+        <v>0.26705</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3928148148148148</v>
+        <v>0.3511689814814815</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4368421052631579</v>
+        <v>0.395</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4315789473684211</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
